--- a/waluty.escel.xlsx
+++ b/waluty.escel.xlsx
@@ -13,6 +13,7 @@
   </sheets>
   <definedNames>
     <definedName name="kursyC" localSheetId="0">Arkusz1!$A$4:$D$18</definedName>
+    <definedName name="kursyC_1" localSheetId="0">Arkusz1!$A$2:$D$16</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
@@ -21,6 +22,9 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <connection id="1" interval="1" name="Połączenie" type="4" refreshedVersion="3" background="1" saveData="1">
+    <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.nbp.pl/kursy/kursyC.html" htmlTables="1"/>
+  </connection>
+  <connection id="2" interval="1" name="Połączenie1" type="4" refreshedVersion="3" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.nbp.pl/kursy/kursyC.html" htmlTables="1"/>
   </connection>
 </connections>
@@ -172,10 +176,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -189,6 +193,10 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="kursyC_1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="kursyC" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
@@ -477,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -492,217 +500,217 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>4.7331000000000003</v>
+      </c>
+      <c r="D4">
+        <v>4.8287000000000004</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="C5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" t="s">
-        <v>4</v>
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>3.2732000000000001</v>
+      </c>
+      <c r="D5">
+        <v>3.3393999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C6">
-        <v>4.7331000000000003</v>
+        <v>3.6465999999999998</v>
       </c>
       <c r="D6">
-        <v>4.8287000000000004</v>
+        <v>3.7202000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C7">
-        <v>3.2732000000000001</v>
+        <v>4.7319000000000004</v>
       </c>
       <c r="D7">
-        <v>3.3393999999999999</v>
+        <v>4.8274999999999997</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C8">
-        <v>3.6465999999999998</v>
+        <v>1.147</v>
       </c>
       <c r="D8">
-        <v>3.7202000000000002</v>
+        <v>1.1701999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C9">
-        <v>4.7319000000000004</v>
+        <v>4.9145000000000003</v>
       </c>
       <c r="D9">
-        <v>4.8274999999999997</v>
+        <v>5.0137</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C10">
-        <v>1.147</v>
+        <v>5.6052</v>
       </c>
       <c r="D10">
-        <v>1.1701999999999999</v>
+        <v>5.7183999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C11">
-        <v>4.9145000000000003</v>
+        <v>3.4594999999999998</v>
       </c>
       <c r="D11">
-        <v>5.0137</v>
+        <v>3.5293000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C12">
-        <v>5.6052</v>
+        <v>0.192</v>
       </c>
       <c r="D12">
-        <v>5.7183999999999999</v>
+        <v>0.1958</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C13">
-        <v>3.4594999999999998</v>
+        <v>0.63619999999999999</v>
       </c>
       <c r="D13">
-        <v>3.5293000000000001</v>
+        <v>0.64900000000000002</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C14">
-        <v>0.192</v>
+        <v>0.48599999999999999</v>
       </c>
       <c r="D14">
-        <v>0.1958</v>
+        <v>0.49580000000000002</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C15">
-        <v>0.63619999999999999</v>
+        <v>0.4466</v>
       </c>
       <c r="D15">
-        <v>0.64900000000000002</v>
+        <v>0.4556</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C16">
-        <v>0.48599999999999999</v>
+        <v>6.1802000000000001</v>
       </c>
       <c r="D16">
-        <v>0.49580000000000002</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17">
-        <v>0.4466</v>
-      </c>
-      <c r="D17">
-        <v>0.4556</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18">
-        <v>6.1802000000000001</v>
-      </c>
-      <c r="D18">
         <v>6.3049999999999997</v>
       </c>
     </row>
